--- a/test-main/src/main/resources/rule2/验证数据.xlsx
+++ b/test-main/src/main/resources/rule2/验证数据.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="105" windowWidth="20475" windowHeight="9630"/>
+    <workbookView xWindow="600" yWindow="135" windowWidth="20475" windowHeight="9600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -66,15 +66,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>rule2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>POC0002</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +94,13 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -120,7 +127,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -129,6 +136,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -495,7 +505,7 @@
       <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="3" t="s">
         <v>14</v>
       </c>
     </row>

--- a/test-main/src/main/resources/rule2/验证数据.xlsx
+++ b/test-main/src/main/resources/rule2/验证数据.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>merchantUserId</t>
   </si>
@@ -59,15 +59,20 @@
     <t>dataDisposeSehedule</t>
   </si>
   <si>
-    <t>successed</t>
-  </si>
-  <si>
-    <t>WITHDRAW</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>POC0002</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRADE</t>
+  </si>
+  <si>
+    <t>SUCCESSED</t>
+  </si>
+  <si>
+    <t>bizCode</t>
+  </si>
+  <si>
+    <t>PAY.JY</t>
   </si>
 </sst>
 </file>
@@ -441,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -454,10 +459,10 @@
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -482,8 +487,11 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -503,10 +511,13 @@
         <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>14</v>
+      <c r="I2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
